--- a/BugTest/Ratings test_AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
+++ b/BugTest/Ratings test_AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
@@ -1468,7 +1468,7 @@
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B11" s="17" t="inlineStr"/>
@@ -1743,7 +1743,91 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="196">
+  <dataValidations count="224">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
